--- a/Infosis.xlsx
+++ b/Infosis.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvvia\Desktop\Programação\TrabalhoProg2\teste\Infosis\InfosisDb\Domain\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E76834D-64F1-4CA0-9F15-507B075483A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
   <si>
     <t>Acao</t>
   </si>
@@ -215,13 +209,17 @@
   </si>
   <si>
     <t>Ala C</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +230,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -252,37 +256,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFffff00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADB9CA"/>
+        <fgColor rgb="FFadb9ca"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2F0D9"/>
+        <fgColor rgb="FFe2f0d9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBDD7EE"/>
+        <fgColor rgb="FFbdd7ee"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8FAADC"/>
+        <fgColor rgb="FF8faadc"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBF9000"/>
+        <fgColor rgb="FFbf9000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFf2f2f2"/>
       </patternFill>
     </fill>
   </fills>
@@ -296,16 +300,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </left>
       <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </right>
       <top style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color rgb="FFc6c6c6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -320,92 +324,107 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="31">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="8" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -416,10 +435,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -457,71 +476,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -549,7 +568,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -572,11 +591,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -585,13 +604,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -601,7 +620,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -610,7 +629,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -619,7 +638,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -627,10 +646,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -695,42 +714,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:X11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="27" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="28" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="28" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="27" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="29" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="28" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="27" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="28" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="28" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="28" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="30" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="28" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="30" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="28" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="28" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -801,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -872,7 +891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -943,7 +962,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1014,7 +1033,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1085,7 +1104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1156,7 +1175,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,7 +1246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1298,7 +1317,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1369,7 +1388,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1440,129 +1459,133 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="1"/>
     </row>
-    <row r="12" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="23"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="25"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
       <c r="W12" s="1"/>
     </row>
-    <row r="13" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="21"/>
+      <c r="G13" s="24"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="21"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="23"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="1"/>
     </row>
-    <row r="14" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="21"/>
+      <c r="G14" s="24"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="21"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="23"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
       <c r="W14" s="1"/>
     </row>
-    <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="21"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="24"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="23"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
       <c r="W15" s="1"/>
     </row>
   </sheetData>

--- a/Infosis.xlsx
+++ b/Infosis.xlsx
@@ -211,7 +211,7 @@
     <t>Ala C</t>
   </si>
   <si>
-    <t>A</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -324,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -386,35 +386,26 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,29 +715,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="27" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="28" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="28" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="27" width="10.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="29" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="28" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="27" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="28" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="28" width="10.005" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="28" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="30" width="10.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="28" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="30" width="18.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="28" width="10.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="28" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="27" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="25" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="25" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="25" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="26" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="26" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="25" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="25" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="26" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="26" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="25" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="25" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="26" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="26" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="26" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="27" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="26" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="27" width="18.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="25" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="26" width="10.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="26" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="25" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1460,107 +1451,107 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="22"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="22"/>
-      <c r="K11" s="21"/>
+      <c r="K11" s="22"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="23"/>
-      <c r="R11" s="21"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="23"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
+      <c r="A12" s="21" t="s">
         <v>65</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="25"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
       <c r="W12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="24"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="19"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
       <c r="W13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="19"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
       <c r="W14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
@@ -1568,24 +1559,24 @@
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="24"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="15"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="25"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="19"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
       <c r="W15" s="1"/>
     </row>
   </sheetData>
